--- a/codeclass/2021.09.09/네이버영화.xlsx
+++ b/codeclass/2021.09.09/네이버영화.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="689">
   <si>
     <t>제목</t>
   </si>
@@ -37,39 +37,42 @@
     <t>출연</t>
   </si>
   <si>
+    <t>상영시간</t>
+  </si>
+  <si>
     <t>샹치와 텐 링즈의 전설</t>
   </si>
   <si>
+    <t>바쿠라우</t>
+  </si>
+  <si>
+    <t>건파우더 밀크셰이크</t>
+  </si>
+  <si>
+    <t>인질</t>
+  </si>
+  <si>
     <t>최선의 삶</t>
   </si>
   <si>
-    <t>건파우더 밀크셰이크</t>
-  </si>
-  <si>
-    <t>인질</t>
+    <t>코다</t>
   </si>
   <si>
     <t>쇼미더고스트</t>
   </si>
   <si>
-    <t>코다</t>
-  </si>
-  <si>
-    <t>바쿠라우</t>
-  </si>
-  <si>
     <t xml:space="preserve">맨 인 더 다크 2 </t>
   </si>
   <si>
     <t>좋은 사람</t>
   </si>
   <si>
+    <t>모가디슈</t>
+  </si>
+  <si>
     <t>슈퍼문</t>
   </si>
   <si>
-    <t>모가디슈</t>
-  </si>
-  <si>
     <t>습도 다소 높음</t>
   </si>
   <si>
@@ -82,12 +85,12 @@
     <t>싱크홀</t>
   </si>
   <si>
+    <t>생각의 여름</t>
+  </si>
+  <si>
     <t>사랑에 관한 짧은 필름</t>
   </si>
   <si>
-    <t>생각의 여름</t>
-  </si>
-  <si>
     <t>너의 이름은.</t>
   </si>
   <si>
@@ -100,25 +103,31 @@
     <t>날씨의 아이</t>
   </si>
   <si>
+    <t>노매드랜드</t>
+  </si>
+  <si>
+    <t>여름날 우리</t>
+  </si>
+  <si>
     <t>꽃다발 같은 사랑을 했다</t>
   </si>
   <si>
-    <t>여름날 우리</t>
-  </si>
-  <si>
-    <t>노매드랜드</t>
+    <t>꿈꾸는 고양이</t>
   </si>
   <si>
     <t>레미니센스</t>
   </si>
   <si>
-    <t>꿈꾸는 고양이</t>
+    <t>퍼피 구조대 더 무비</t>
+  </si>
+  <si>
+    <t>프리 가이</t>
   </si>
   <si>
     <t>뱅드림! 로젤리아 에피소드 Ⅱ : 송 아이 엠</t>
   </si>
   <si>
-    <t>프리 가이</t>
+    <t>극장판 페이트/그랜드 오더 신성원탁영역 카멜롯 팔라딘; 아가트람</t>
   </si>
   <si>
     <t>자마</t>
@@ -130,244 +139,232 @@
     <t>캡틴 판타스틱</t>
   </si>
   <si>
+    <t>올드</t>
+  </si>
+  <si>
+    <t>해변의 에트랑제</t>
+  </si>
+  <si>
     <t>스네이크 아이즈: 지.아이.조</t>
   </si>
   <si>
-    <t>해변의 에트랑제</t>
-  </si>
-  <si>
-    <t>퍼피 구조대 더 무비</t>
-  </si>
-  <si>
-    <t>극장판 페이트/그랜드 오더 신성원탁영역 카멜롯 팔라딘; 아가트람</t>
+    <t>남색대문</t>
   </si>
   <si>
     <t>박강아름 결혼하다</t>
   </si>
   <si>
-    <t>남색대문</t>
+    <t>그대 너머에</t>
   </si>
   <si>
     <t>귀문</t>
   </si>
   <si>
+    <t>나는 나대로 혼자서 간다</t>
+  </si>
+  <si>
+    <t>그린 나이트</t>
+  </si>
+  <si>
+    <t>사운드 오브 데스</t>
+  </si>
+  <si>
+    <t>이도공간</t>
+  </si>
+  <si>
+    <t>사제로부터 온 편지</t>
+  </si>
+  <si>
+    <t>사냥의 시간</t>
+  </si>
+  <si>
+    <t>잘리카투</t>
+  </si>
+  <si>
+    <t>소셜 네트워크</t>
+  </si>
+  <si>
     <t>갈매기</t>
   </si>
   <si>
+    <t>콰이강의 다리</t>
+  </si>
+  <si>
+    <t>캐논볼</t>
+  </si>
+  <si>
+    <t>팜 스프링스</t>
+  </si>
+  <si>
     <t>인트로덕션</t>
   </si>
   <si>
-    <t>나는 나대로 혼자서 간다</t>
-  </si>
-  <si>
-    <t>올드</t>
-  </si>
-  <si>
-    <t>사운드 오브 데스</t>
-  </si>
-  <si>
-    <t>이도공간</t>
-  </si>
-  <si>
-    <t>사제로부터 온 편지</t>
+    <t>켈리 갱</t>
+  </si>
+  <si>
+    <t>조제, 호랑이 그리고 물고기들</t>
+  </si>
+  <si>
+    <t>묵향</t>
+  </si>
+  <si>
+    <t>아담</t>
+  </si>
+  <si>
+    <t>블랙 위도우</t>
+  </si>
+  <si>
+    <t>언더그라운드</t>
+  </si>
+  <si>
+    <t>하이큐!! 땅 VS 하늘</t>
+  </si>
+  <si>
+    <t>교실 안의 야크</t>
+  </si>
+  <si>
+    <t>다이노 마이 프렌드</t>
+  </si>
+  <si>
+    <t>더 수어사이드 스쿼드</t>
+  </si>
+  <si>
+    <t>숏버스 감성행</t>
+  </si>
+  <si>
+    <t>오필리아</t>
+  </si>
+  <si>
+    <t>우리, 둘</t>
+  </si>
+  <si>
+    <t>은혼 더 파이널</t>
   </si>
   <si>
     <t>중경삼림</t>
   </si>
   <si>
-    <t>팜 스프링스</t>
-  </si>
-  <si>
-    <t>조제, 호랑이 그리고 물고기들</t>
-  </si>
-  <si>
-    <t>캐논볼</t>
-  </si>
-  <si>
-    <t>콰이강의 다리</t>
-  </si>
-  <si>
-    <t>그린 나이트</t>
-  </si>
-  <si>
-    <t>소셜 네트워크</t>
+    <t>피닉스</t>
+  </si>
+  <si>
+    <t>69세</t>
+  </si>
+  <si>
+    <t>너의 췌장을 먹고 싶어</t>
+  </si>
+  <si>
+    <t>암살자들</t>
+  </si>
+  <si>
+    <t>올리버 색스: 그의 생애</t>
+  </si>
+  <si>
+    <t>윤희에게</t>
+  </si>
+  <si>
+    <t>화양연화</t>
+  </si>
+  <si>
+    <t>강변호텔</t>
+  </si>
+  <si>
+    <t>기담</t>
+  </si>
+  <si>
+    <t>너와 파도를 탈 수 있다면</t>
+  </si>
+  <si>
+    <t>더 나이트</t>
+  </si>
+  <si>
+    <t>더스트맨</t>
+  </si>
+  <si>
+    <t>데미지</t>
+  </si>
+  <si>
+    <t>독전</t>
+  </si>
+  <si>
+    <t>릴리 슈슈의 모든 것</t>
+  </si>
+  <si>
+    <t>몽마르트 파파</t>
+  </si>
+  <si>
+    <t>바울</t>
+  </si>
+  <si>
+    <t>번지 점프를 하다</t>
+  </si>
+  <si>
+    <t>베로니카의 이중 생활</t>
+  </si>
+  <si>
+    <t>북샵</t>
+  </si>
+  <si>
+    <t>빛나는 순간</t>
+  </si>
+  <si>
+    <t>세 가지 색 : 레드</t>
+  </si>
+  <si>
+    <t>세 가지 색 : 블루</t>
+  </si>
+  <si>
+    <t>수필러브</t>
+  </si>
+  <si>
+    <t>신세계</t>
+  </si>
+  <si>
+    <t>신은 죽지 않았다 3: 어둠 속의 빛</t>
+  </si>
+  <si>
+    <t>악녀</t>
+  </si>
+  <si>
+    <t>에로스</t>
+  </si>
+  <si>
+    <t>우리의 20세기</t>
+  </si>
+  <si>
+    <t>이별의 아침에 약속의 꽃을 장식하자</t>
+  </si>
+  <si>
+    <t>이스케이프 룸 2: 노 웨이 아웃</t>
+  </si>
+  <si>
+    <t>이중섭의 아내</t>
+  </si>
+  <si>
+    <t>정말 먼 곳</t>
+  </si>
+  <si>
+    <t>크레센도</t>
+  </si>
+  <si>
+    <t>트립 투 그리스</t>
+  </si>
+  <si>
+    <t>하나와 앨리스</t>
+  </si>
+  <si>
+    <t>학교 가는 길</t>
+  </si>
+  <si>
+    <t>해피 투게더</t>
+  </si>
+  <si>
+    <t>호우시절</t>
   </si>
   <si>
     <t>흩어진 밤</t>
   </si>
   <si>
-    <t>잘리카투</t>
-  </si>
-  <si>
-    <t>사냥의 시간</t>
-  </si>
-  <si>
-    <t>켈리 갱</t>
-  </si>
-  <si>
-    <t>묵향</t>
-  </si>
-  <si>
-    <t>아담</t>
-  </si>
-  <si>
-    <t>그대 너머에</t>
-  </si>
-  <si>
-    <t>블랙 위도우</t>
-  </si>
-  <si>
-    <t>언더그라운드</t>
-  </si>
-  <si>
-    <t>피닉스</t>
-  </si>
-  <si>
-    <t>교실 안의 야크</t>
-  </si>
-  <si>
-    <t>다이노 마이 프렌드</t>
-  </si>
-  <si>
-    <t>더 수어사이드 스쿼드</t>
-  </si>
-  <si>
-    <t>숏버스 감성행</t>
-  </si>
-  <si>
-    <t>하이큐!! 땅 VS 하늘</t>
-  </si>
-  <si>
-    <t>오필리아</t>
-  </si>
-  <si>
-    <t>우리, 둘</t>
-  </si>
-  <si>
-    <t>은혼 더 파이널</t>
-  </si>
-  <si>
-    <t>69세</t>
-  </si>
-  <si>
-    <t>너의 췌장을 먹고 싶어</t>
-  </si>
-  <si>
-    <t>암살자들</t>
-  </si>
-  <si>
-    <t>올리버 색스: 그의 생애</t>
-  </si>
-  <si>
-    <t>윤희에게</t>
-  </si>
-  <si>
-    <t>화양연화</t>
-  </si>
-  <si>
-    <t>강변호텔</t>
-  </si>
-  <si>
-    <t>기담</t>
-  </si>
-  <si>
-    <t>너와 파도를 탈 수 있다면</t>
-  </si>
-  <si>
-    <t>더 나이트</t>
-  </si>
-  <si>
-    <t>더스트맨</t>
-  </si>
-  <si>
-    <t>데미지</t>
-  </si>
-  <si>
-    <t>독전</t>
-  </si>
-  <si>
-    <t>릴리 슈슈의 모든 것</t>
-  </si>
-  <si>
-    <t>메리 크리스마스 미스터 모</t>
-  </si>
-  <si>
-    <t>몽마르트 파파</t>
-  </si>
-  <si>
-    <t>바울</t>
-  </si>
-  <si>
-    <t>번지 점프를 하다</t>
-  </si>
-  <si>
-    <t>베로니카의 이중 생활</t>
-  </si>
-  <si>
-    <t>북샵</t>
-  </si>
-  <si>
-    <t>빛나는 순간</t>
-  </si>
-  <si>
-    <t>세 가지 색 : 레드</t>
-  </si>
-  <si>
-    <t>세 가지 색 : 블루</t>
-  </si>
-  <si>
-    <t>수필러브</t>
-  </si>
-  <si>
-    <t>신세계</t>
-  </si>
-  <si>
-    <t>신은 죽지 않았다 3: 어둠 속의 빛</t>
-  </si>
-  <si>
-    <t>악녀</t>
-  </si>
-  <si>
-    <t>에로스</t>
-  </si>
-  <si>
-    <t>우리의 20세기</t>
-  </si>
-  <si>
-    <t>이별의 아침에 약속의 꽃을 장식하자</t>
-  </si>
-  <si>
-    <t>이스케이프 룸 2: 노 웨이 아웃</t>
-  </si>
-  <si>
-    <t>이중섭의 아내</t>
-  </si>
-  <si>
-    <t>정말 먼 곳</t>
-  </si>
-  <si>
-    <t>천로역정: 천국을 찾아서</t>
-  </si>
-  <si>
-    <t>크레센도</t>
-  </si>
-  <si>
-    <t>트립 투 그리스</t>
-  </si>
-  <si>
-    <t>하나와 앨리스</t>
-  </si>
-  <si>
-    <t>학교 가는 길</t>
-  </si>
-  <si>
-    <t>해피 투게더</t>
-  </si>
-  <si>
-    <t>호우시절</t>
-  </si>
-  <si>
-    <t>뉴욕의 왕</t>
+    <t>극장판 도라에몽: 진구의 신공룡</t>
   </si>
   <si>
     <t>라임라이트</t>
@@ -379,6 +376,9 @@
     <t>미스 사이공: 25주년 특별 공연</t>
   </si>
   <si>
+    <t>보스 베이비 2</t>
+  </si>
+  <si>
     <t>서커스</t>
   </si>
   <si>
@@ -394,282 +394,282 @@
     <t>키드</t>
   </si>
   <si>
-    <t>파리의 여인</t>
-  </si>
-  <si>
     <t>황금광시대</t>
   </si>
   <si>
-    <t>6.76</t>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>7.76</t>
+  </si>
+  <si>
+    <t>6.49</t>
+  </si>
+  <si>
+    <t>7.36</t>
   </si>
   <si>
     <t>8.87</t>
   </si>
   <si>
-    <t>6.30</t>
-  </si>
-  <si>
-    <t>7.36</t>
+    <t>9.35</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>8.13</t>
+  </si>
+  <si>
+    <t>9.67</t>
+  </si>
+  <si>
+    <t>8.33</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
+    <t>8.47</t>
+  </si>
+  <si>
+    <t>8.20</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>8.28</t>
+  </si>
+  <si>
+    <t>8.67</t>
+  </si>
+  <si>
+    <t>8.79</t>
+  </si>
+  <si>
+    <t>8.15</t>
+  </si>
+  <si>
+    <t>8.40</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>8.96</t>
+  </si>
+  <si>
+    <t>9.09</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>9.54</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>8.56</t>
+  </si>
+  <si>
+    <t>7.29</t>
+  </si>
+  <si>
+    <t>8.59</t>
+  </si>
+  <si>
+    <t>6.72</t>
+  </si>
+  <si>
+    <t>8.03</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>8.23</t>
+  </si>
+  <si>
+    <t>9.57</t>
+  </si>
+  <si>
+    <t>4.61</t>
+  </si>
+  <si>
+    <t>7.96</t>
+  </si>
+  <si>
+    <t>7.63</t>
+  </si>
+  <si>
+    <t>8.29</t>
+  </si>
+  <si>
+    <t>9.83</t>
+  </si>
+  <si>
+    <t>5.67</t>
+  </si>
+  <si>
+    <t>7.55</t>
+  </si>
+  <si>
+    <t>7.84</t>
+  </si>
+  <si>
+    <t>8.94</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>7.68</t>
+  </si>
+  <si>
+    <t>7.43</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.51</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>8.30</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>9.44</t>
+  </si>
+  <si>
+    <t>8.92</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>8.64</t>
+  </si>
+  <si>
+    <t>8.39</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>8.97</t>
+  </si>
+  <si>
+    <t>8.77</t>
+  </si>
+  <si>
+    <t>8.08</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>8.58</t>
+  </si>
+  <si>
+    <t>8.10</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>7.52</t>
+  </si>
+  <si>
+    <t>8.11</t>
+  </si>
+  <si>
+    <t>9.46</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>8.98</t>
+  </si>
+  <si>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>8.48</t>
+  </si>
+  <si>
+    <t>8.37</t>
+  </si>
+  <si>
+    <t>6.97</t>
+  </si>
+  <si>
+    <t>6.79</t>
+  </si>
+  <si>
+    <t>8.91</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>9.02</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>9.58</t>
+  </si>
+  <si>
+    <t>9.19</t>
+  </si>
+  <si>
+    <t>7.40</t>
+  </si>
+  <si>
+    <t>9.06</t>
+  </si>
+  <si>
     <t>9.36</t>
   </si>
   <si>
-    <t>7.89</t>
-  </si>
-  <si>
-    <t>8.14</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>8.33</t>
-  </si>
-  <si>
-    <t>8.47</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>6.78</t>
-  </si>
-  <si>
-    <t>8.67</t>
-  </si>
-  <si>
-    <t>8.28</t>
-  </si>
-  <si>
-    <t>8.79</t>
-  </si>
-  <si>
-    <t>8.15</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>7.95</t>
-  </si>
-  <si>
-    <t>9.09</t>
-  </si>
-  <si>
-    <t>8.99</t>
-  </si>
-  <si>
-    <t>7.01</t>
+    <t>9.21</t>
   </si>
   <si>
     <t>9.11</t>
   </si>
   <si>
-    <t>7.29</t>
-  </si>
-  <si>
-    <t>8.56</t>
-  </si>
-  <si>
-    <t>8.59</t>
-  </si>
-  <si>
-    <t>8.03</t>
-  </si>
-  <si>
-    <t>9.54</t>
-  </si>
-  <si>
-    <t>9.57</t>
-  </si>
-  <si>
-    <t>8.23</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>8.94</t>
-  </si>
-  <si>
-    <t>7.68</t>
-  </si>
-  <si>
-    <t>7.96</t>
-  </si>
-  <si>
-    <t>6.72</t>
-  </si>
-  <si>
-    <t>8.29</t>
-  </si>
-  <si>
-    <t>9.83</t>
-  </si>
-  <si>
-    <t>8.92</t>
-  </si>
-  <si>
-    <t>8.25</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>8.71</t>
-  </si>
-  <si>
-    <t>7.63</t>
-  </si>
-  <si>
-    <t>7.84</t>
-  </si>
-  <si>
-    <t>7.55</t>
-  </si>
-  <si>
-    <t>5.67</t>
-  </si>
-  <si>
-    <t>7.43</t>
-  </si>
-  <si>
-    <t>5.33</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>8.45</t>
-  </si>
-  <si>
-    <t>9.40</t>
-  </si>
-  <si>
-    <t>6.14</t>
-  </si>
-  <si>
-    <t>7.06</t>
-  </si>
-  <si>
-    <t>8.30</t>
-  </si>
-  <si>
-    <t>8.51</t>
-  </si>
-  <si>
-    <t>9.14</t>
-  </si>
-  <si>
-    <t>9.44</t>
-  </si>
-  <si>
-    <t>8.64</t>
-  </si>
-  <si>
-    <t>8.39</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
-    <t>8.97</t>
-  </si>
-  <si>
-    <t>8.77</t>
-  </si>
-  <si>
-    <t>8.08</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>7.49</t>
-  </si>
-  <si>
-    <t>8.58</t>
-  </si>
-  <si>
-    <t>8.10</t>
-  </si>
-  <si>
-    <t>5.08</t>
-  </si>
-  <si>
-    <t>7.52</t>
-  </si>
-  <si>
-    <t>8.11</t>
-  </si>
-  <si>
-    <t>8.89</t>
-  </si>
-  <si>
-    <t>9.46</t>
-  </si>
-  <si>
-    <t>9.17</t>
-  </si>
-  <si>
-    <t>8.98</t>
-  </si>
-  <si>
-    <t>8.20</t>
-  </si>
-  <si>
-    <t>8.74</t>
-  </si>
-  <si>
-    <t>8.48</t>
-  </si>
-  <si>
-    <t>8.37</t>
-  </si>
-  <si>
-    <t>6.97</t>
-  </si>
-  <si>
-    <t>6.79</t>
-  </si>
-  <si>
-    <t>8.91</t>
-  </si>
-  <si>
-    <t>8.31</t>
-  </si>
-  <si>
-    <t>7.20</t>
-  </si>
-  <si>
-    <t>8.13</t>
-  </si>
-  <si>
-    <t>8.84</t>
-  </si>
-  <si>
-    <t>9.02</t>
-  </si>
-  <si>
-    <t>5.70</t>
-  </si>
-  <si>
-    <t>9.58</t>
-  </si>
-  <si>
-    <t>9.19</t>
-  </si>
-  <si>
-    <t>7.40</t>
-  </si>
-  <si>
-    <t>9.21</t>
-  </si>
-  <si>
     <t>9.38</t>
   </si>
   <si>
@@ -682,79 +682,88 @@
     <t>9.26</t>
   </si>
   <si>
-    <t>9.08</t>
-  </si>
-  <si>
     <t>9.01</t>
   </si>
   <si>
-    <t>5,124</t>
+    <t>5,210</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>3,704</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>3,696</t>
+    <t>341</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13,774</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>383</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5,807</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>32,751</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>6,045</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>1,751</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>13,761</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>5,803</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>32,748</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6,045</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>1,749</t>
+    <t>16</t>
   </si>
   <si>
     <t>14</t>
@@ -766,102 +775,93 @@
     <t>452</t>
   </si>
   <si>
+    <t>731</t>
+  </si>
+  <si>
     <t>135</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>62</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>620</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>9,589</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2,865</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>225</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7,254</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>2,245</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>256</t>
   </si>
   <si>
     <t>2,577</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>2,865</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>9,588</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7,253</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>2,244</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
     <t>7,597</t>
   </si>
   <si>
@@ -889,7 +889,7 @@
     <t>320</t>
   </si>
   <si>
-    <t>4,909</t>
+    <t>4,910</t>
   </si>
   <si>
     <t>12</t>
@@ -907,9 +907,6 @@
     <t>1,350</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>169</t>
   </si>
   <si>
@@ -925,7 +922,7 @@
     <t>94</t>
   </si>
   <si>
-    <t>21,746</t>
+    <t>21,748</t>
   </si>
   <si>
     <t>417</t>
@@ -940,7 +937,7 @@
     <t>1,436</t>
   </si>
   <si>
-    <t>577</t>
+    <t>578</t>
   </si>
   <si>
     <t>25</t>
@@ -949,9 +946,6 @@
     <t>117</t>
   </si>
   <si>
-    <t>1,040</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -967,7 +961,7 @@
     <t>1,917</t>
   </si>
   <si>
-    <t>18</t>
+    <t>116</t>
   </si>
   <si>
     <t>88</t>
@@ -979,6 +973,9 @@
     <t>280</t>
   </si>
   <si>
+    <t>1,526</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
@@ -994,73 +991,73 @@
     <t>151</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>144</t>
   </si>
   <si>
-    <t>17.45</t>
-  </si>
-  <si>
-    <t>6.71</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>6.04</t>
-  </si>
-  <si>
-    <t>5.58</t>
-  </si>
-  <si>
-    <t>5.16</t>
-  </si>
-  <si>
-    <t>4.18</t>
-  </si>
-  <si>
-    <t>3.82</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>2.53</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>1.81</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.41</t>
+    <t>19.49</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>6.21</t>
+  </si>
+  <si>
+    <t>6.17</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
   <si>
     <t>0.36</t>
@@ -1069,19 +1066,22 @@
     <t>0.31</t>
   </si>
   <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.05</t>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.04</t>
   </si>
   <si>
     <t>0.01</t>
@@ -1090,33 +1090,33 @@
     <t>액션, 모험, 판타지</t>
   </si>
   <si>
+    <t>미스터리, 스릴러, 서부</t>
+  </si>
+  <si>
+    <t>액션</t>
+  </si>
+  <si>
+    <t>액션, 스릴러</t>
+  </si>
+  <si>
     <t>드라마</t>
   </si>
   <si>
-    <t>액션</t>
-  </si>
-  <si>
-    <t>액션, 스릴러</t>
-  </si>
-  <si>
     <t>코미디, 공포</t>
   </si>
   <si>
-    <t>미스터리, 스릴러, 서부</t>
-  </si>
-  <si>
     <t>범죄, 공포, 스릴러</t>
   </si>
   <si>
     <t>서스펜스, 미스터리</t>
   </si>
   <si>
+    <t>액션, 드라마</t>
+  </si>
+  <si>
     <t>애니메이션, 모험, 코미디</t>
   </si>
   <si>
-    <t>액션, 드라마</t>
-  </si>
-  <si>
     <t>코미디, 드라마</t>
   </si>
   <si>
@@ -1135,34 +1135,37 @@
     <t>애니메이션</t>
   </si>
   <si>
+    <t>멜로/로맨스, 코미디</t>
+  </si>
+  <si>
     <t>멜로/로맨스</t>
   </si>
   <si>
-    <t>멜로/로맨스, 코미디</t>
+    <t>다큐멘터리</t>
   </si>
   <si>
     <t>SF, 미스터리, 멜로/로맨스</t>
   </si>
   <si>
-    <t>다큐멘터리</t>
-  </si>
-  <si>
     <t>액션, 모험</t>
   </si>
   <si>
+    <t>애니메이션, 액션, 판타지</t>
+  </si>
+  <si>
     <t>스릴러, 드라마</t>
   </si>
   <si>
+    <t>스릴러, 공포</t>
+  </si>
+  <si>
     <t>애니메이션, 멜로/로맨스</t>
   </si>
   <si>
-    <t>애니메이션, 액션, 판타지</t>
-  </si>
-  <si>
     <t>미스터리, 스릴러, 공포</t>
   </si>
   <si>
-    <t>스릴러, 공포</t>
+    <t>모험, 드라마, 판타지</t>
   </si>
   <si>
     <t>공포, 범죄, 스릴러</t>
@@ -1171,24 +1174,21 @@
     <t>다큐멘터리, 드라마</t>
   </si>
   <si>
+    <t>전쟁, 모험, 드라마</t>
+  </si>
+  <si>
+    <t>드라마, 가족</t>
+  </si>
+  <si>
     <t>코미디, 멜로/로맨스, 판타지</t>
   </si>
   <si>
+    <t>범죄, 액션, 드라마</t>
+  </si>
+  <si>
     <t>애니메이션, 드라마</t>
   </si>
   <si>
-    <t>드라마, 가족</t>
-  </si>
-  <si>
-    <t>전쟁, 모험, 드라마</t>
-  </si>
-  <si>
-    <t>모험, 드라마, 판타지</t>
-  </si>
-  <si>
-    <t>범죄, 액션, 드라마</t>
-  </si>
-  <si>
     <t>공연실황</t>
   </si>
   <si>
@@ -1210,9 +1210,6 @@
     <t>범죄, 액션</t>
   </si>
   <si>
-    <t>블랙코미디</t>
-  </si>
-  <si>
     <t>드라마, 판타지, 멜로/로맨스</t>
   </si>
   <si>
@@ -1225,6 +1222,9 @@
     <t>코미디</t>
   </si>
   <si>
+    <t>애니메이션, 코미디, 모험</t>
+  </si>
+  <si>
     <t>코미디, 가족, 드라마, 멜로/로맨스</t>
   </si>
   <si>
@@ -1243,36 +1243,36 @@
     <t>데스틴 크리튼</t>
   </si>
   <si>
+    <t>클레버 멘돈사 필로, 줄리아노 도르넬레스</t>
+  </si>
+  <si>
+    <t>나봇 파푸샤도</t>
+  </si>
+  <si>
+    <t>필감성</t>
+  </si>
+  <si>
     <t>이우정</t>
   </si>
   <si>
-    <t>나봇 파푸샤도</t>
-  </si>
-  <si>
-    <t>필감성</t>
+    <t>션 헤이더</t>
   </si>
   <si>
     <t>김은경</t>
   </si>
   <si>
-    <t>션 헤이더</t>
-  </si>
-  <si>
-    <t>클레버 멘돈사 필로, 줄리아노 도르넬레스</t>
-  </si>
-  <si>
     <t>로도 사야구에즈</t>
   </si>
   <si>
     <t>정욱</t>
   </si>
   <si>
+    <t>류승완</t>
+  </si>
+  <si>
     <t>홍대영</t>
   </si>
   <si>
-    <t>류승완</t>
-  </si>
-  <si>
     <t>고봉수</t>
   </si>
   <si>
@@ -1285,37 +1285,43 @@
     <t>김지훈</t>
   </si>
   <si>
+    <t>김종재</t>
+  </si>
+  <si>
     <t>크쥐시토프 키에슬로프스키</t>
   </si>
   <si>
-    <t>김종재</t>
-  </si>
-  <si>
     <t>신카이 마코토</t>
   </si>
   <si>
     <t>리슬 타미</t>
   </si>
   <si>
+    <t>클로이 자오</t>
+  </si>
+  <si>
+    <t>한톈</t>
+  </si>
+  <si>
     <t>도이 노부히로</t>
   </si>
   <si>
-    <t>한톈</t>
-  </si>
-  <si>
-    <t>클로이 자오</t>
+    <t>지원, 강민현</t>
   </si>
   <si>
     <t>리사 조이</t>
   </si>
   <si>
-    <t>지원, 강민현</t>
+    <t>캘런 브런커</t>
+  </si>
+  <si>
+    <t>숀 레비</t>
   </si>
   <si>
     <t>코다이 카키모토</t>
   </si>
   <si>
-    <t>숀 레비</t>
+    <t>아라이 카즈토</t>
   </si>
   <si>
     <t>루크레시아 마르텔</t>
@@ -1327,223 +1333,217 @@
     <t>맷 로스</t>
   </si>
   <si>
+    <t>M. 나이트 샤말란</t>
+  </si>
+  <si>
+    <t>오오하시 아키요</t>
+  </si>
+  <si>
     <t>로베르트 슈벤트케</t>
   </si>
   <si>
-    <t>오오하시 아키요</t>
-  </si>
-  <si>
-    <t>캘런 브런커</t>
-  </si>
-  <si>
-    <t>아라이 카즈토</t>
+    <t>이치엔</t>
   </si>
   <si>
     <t>박강아름</t>
   </si>
   <si>
-    <t>이치엔</t>
+    <t>박홍민</t>
   </si>
   <si>
     <t>심덕근</t>
   </si>
   <si>
+    <t>오키타 슈이치</t>
+  </si>
+  <si>
+    <t>데이빗 로워리</t>
+  </si>
+  <si>
+    <t>알렉스 노이어</t>
+  </si>
+  <si>
+    <t>나지량</t>
+  </si>
+  <si>
+    <t>최종태</t>
+  </si>
+  <si>
+    <t>윤성현</t>
+  </si>
+  <si>
+    <t>리조 조세 펠리세리</t>
+  </si>
+  <si>
+    <t>데이빗 핀처</t>
+  </si>
+  <si>
     <t>김미조</t>
   </si>
   <si>
+    <t>데이빗 린</t>
+  </si>
+  <si>
+    <t>정승민</t>
+  </si>
+  <si>
+    <t>맥스 바바코우</t>
+  </si>
+  <si>
     <t>홍상수</t>
   </si>
   <si>
-    <t>오키타 슈이치</t>
-  </si>
-  <si>
-    <t>M. 나이트 샤말란</t>
-  </si>
-  <si>
-    <t>알렉스 노이어</t>
-  </si>
-  <si>
-    <t>나지량</t>
-  </si>
-  <si>
-    <t>최종태</t>
+    <t>저스틴 커젤</t>
+  </si>
+  <si>
+    <t>타무라 코타로</t>
+  </si>
+  <si>
+    <t>정구호</t>
+  </si>
+  <si>
+    <t>마리암 투자니</t>
+  </si>
+  <si>
+    <t>케이트 쇼트랜드</t>
+  </si>
+  <si>
+    <t>김정근</t>
+  </si>
+  <si>
+    <t>미츠나카 스스무</t>
+  </si>
+  <si>
+    <t>파우 초이닝 도르지</t>
+  </si>
+  <si>
+    <t>종유</t>
+  </si>
+  <si>
+    <t>제임스 건</t>
+  </si>
+  <si>
+    <t>강인석, 안다훈, 박경진</t>
+  </si>
+  <si>
+    <t>클레어 맥카시</t>
+  </si>
+  <si>
+    <t>필리포 메네게티</t>
+  </si>
+  <si>
+    <t>미야와키 치즈루</t>
   </si>
   <si>
     <t>왕가위</t>
   </si>
   <si>
-    <t>맥스 바바코우</t>
-  </si>
-  <si>
-    <t>타무라 코타로</t>
-  </si>
-  <si>
-    <t>정승민</t>
-  </si>
-  <si>
-    <t>데이빗 린</t>
-  </si>
-  <si>
-    <t>데이빗 로워리</t>
-  </si>
-  <si>
-    <t>데이빗 핀처</t>
+    <t>크리스티안 펫졸드</t>
+  </si>
+  <si>
+    <t>임선애</t>
+  </si>
+  <si>
+    <t>우시지마 신이치로</t>
+  </si>
+  <si>
+    <t>라이언 화이트</t>
+  </si>
+  <si>
+    <t>릭 번스</t>
+  </si>
+  <si>
+    <t>임대형</t>
+  </si>
+  <si>
+    <t>마이클 메이어</t>
+  </si>
+  <si>
+    <t>정식, 정범식</t>
+  </si>
+  <si>
+    <t>유아사 마사아키</t>
+  </si>
+  <si>
+    <t>츠키카와 쇼</t>
+  </si>
+  <si>
+    <t>코우로시 아하리</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>루이 말</t>
+  </si>
+  <si>
+    <t>이해영</t>
+  </si>
+  <si>
+    <t>이와이 슌지</t>
+  </si>
+  <si>
+    <t>민병우</t>
+  </si>
+  <si>
+    <t>앤드류 하얏트</t>
+  </si>
+  <si>
+    <t>김대승</t>
+  </si>
+  <si>
+    <t>이자벨 코이젯트</t>
+  </si>
+  <si>
+    <t>소준문</t>
+  </si>
+  <si>
+    <t>홍두표</t>
+  </si>
+  <si>
+    <t>박훈정</t>
+  </si>
+  <si>
+    <t>마이클 메이슨</t>
+  </si>
+  <si>
+    <t>정병길</t>
+  </si>
+  <si>
+    <t>왕가위, 스티븐 소더버그, 미켈란젤로 안토니오니</t>
+  </si>
+  <si>
+    <t>마이크 밀스</t>
+  </si>
+  <si>
+    <t>오카다 마리</t>
+  </si>
+  <si>
+    <t>애덤 로비텔</t>
+  </si>
+  <si>
+    <t>사카이 아츠코</t>
+  </si>
+  <si>
+    <t>박근영</t>
+  </si>
+  <si>
+    <t>드로 자하비</t>
+  </si>
+  <si>
+    <t>마이클 윈터바텀</t>
+  </si>
+  <si>
+    <t>김정인</t>
+  </si>
+  <si>
+    <t>허진호</t>
   </si>
   <si>
     <t>이지형, 김솔</t>
   </si>
   <si>
-    <t>리조 조세 펠리세리</t>
-  </si>
-  <si>
-    <t>윤성현</t>
-  </si>
-  <si>
-    <t>저스틴 커젤</t>
-  </si>
-  <si>
-    <t>정구호</t>
-  </si>
-  <si>
-    <t>마리암 투자니</t>
-  </si>
-  <si>
-    <t>박홍민</t>
-  </si>
-  <si>
-    <t>케이트 쇼트랜드</t>
-  </si>
-  <si>
-    <t>김정근</t>
-  </si>
-  <si>
-    <t>크리스티안 펫졸드</t>
-  </si>
-  <si>
-    <t>파우 초이닝 도르지</t>
-  </si>
-  <si>
-    <t>종유</t>
-  </si>
-  <si>
-    <t>제임스 건</t>
-  </si>
-  <si>
-    <t>강인석, 안다훈, 박경진</t>
-  </si>
-  <si>
-    <t>미츠나카 스스무</t>
-  </si>
-  <si>
-    <t>클레어 맥카시</t>
-  </si>
-  <si>
-    <t>필리포 메네게티</t>
-  </si>
-  <si>
-    <t>미야와키 치즈루</t>
-  </si>
-  <si>
-    <t>임선애</t>
-  </si>
-  <si>
-    <t>우시지마 신이치로</t>
-  </si>
-  <si>
-    <t>라이언 화이트</t>
-  </si>
-  <si>
-    <t>릭 번스</t>
-  </si>
-  <si>
-    <t>임대형</t>
-  </si>
-  <si>
-    <t>마이클 메이어</t>
-  </si>
-  <si>
-    <t>정식, 정범식</t>
-  </si>
-  <si>
-    <t>유아사 마사아키</t>
-  </si>
-  <si>
-    <t>츠키카와 쇼</t>
-  </si>
-  <si>
-    <t>코우로시 아하리</t>
-  </si>
-  <si>
-    <t>김나경</t>
-  </si>
-  <si>
-    <t>루이 말</t>
-  </si>
-  <si>
-    <t>이해영</t>
-  </si>
-  <si>
-    <t>이와이 슌지</t>
-  </si>
-  <si>
-    <t>민병우</t>
-  </si>
-  <si>
-    <t>앤드류 하얏트</t>
-  </si>
-  <si>
-    <t>김대승</t>
-  </si>
-  <si>
-    <t>이자벨 코이젯트</t>
-  </si>
-  <si>
-    <t>소준문</t>
-  </si>
-  <si>
-    <t>홍두표</t>
-  </si>
-  <si>
-    <t>박훈정</t>
-  </si>
-  <si>
-    <t>마이클 메이슨</t>
-  </si>
-  <si>
-    <t>정병길</t>
-  </si>
-  <si>
-    <t>왕가위, 스티븐 소더버그, 미켈란젤로 안토니오니</t>
-  </si>
-  <si>
-    <t>마이크 밀스</t>
-  </si>
-  <si>
-    <t>오카다 마리</t>
-  </si>
-  <si>
-    <t>애덤 로비텔</t>
-  </si>
-  <si>
-    <t>사카이 아츠코</t>
-  </si>
-  <si>
-    <t>박근영</t>
-  </si>
-  <si>
-    <t>로버트 페르난데스</t>
-  </si>
-  <si>
-    <t>드로 자하비</t>
-  </si>
-  <si>
-    <t>마이클 윈터바텀</t>
-  </si>
-  <si>
-    <t>김정인</t>
-  </si>
-  <si>
-    <t>허진호</t>
+    <t>이마이 카즈아키</t>
   </si>
   <si>
     <t>찰리 채플린</t>
@@ -1552,42 +1552,45 @@
     <t>브렛 설리반</t>
   </si>
   <si>
+    <t>톰 맥그라스</t>
+  </si>
+  <si>
     <t>이충현</t>
   </si>
   <si>
     <t>시무 리우, 양조위, 아콰피나</t>
   </si>
   <si>
+    <t>우도 키에르, 소냐 브라가, 토마스 아퀴노</t>
+  </si>
+  <si>
+    <t>카렌 길런, 레나 헤디, 안젤라 바셋, 양자경, 칼라 구기노, 폴 지아마티</t>
+  </si>
+  <si>
+    <t>황정민, 김재범, 이유미, 류경수, 정재원, 이규원, 이호정</t>
+  </si>
+  <si>
     <t>방민아, 심달기, 한성민</t>
   </si>
   <si>
-    <t>카렌 길런, 레나 헤디, 안젤라 바셋, 양자경, 칼라 구기노, 폴 지아마티</t>
-  </si>
-  <si>
-    <t>황정민, 김재범, 이유미, 류경수, 정재원, 이규원, 이호정</t>
+    <t>에밀리아 존스, 퍼디아 월시-필로, 트로이 코처, 다니엘 듀런트, 말리 매트린, 에우헤니오 데르베스, 에이미 포사이스</t>
   </si>
   <si>
     <t>한승연, 김현목, 홍승범</t>
   </si>
   <si>
-    <t>에밀리아 존스, 퍼디아 월시-필로, 트로이 코처, 다니엘 듀런트, 말리 매트린, 에우헤니오 데르베스, 에이미 포사이스</t>
-  </si>
-  <si>
-    <t>우도 키에르, 소냐 브라가, 토마스 아퀴노</t>
-  </si>
-  <si>
     <t>스티븐 랭, 매들린 그레이스, 브렌단 섹스톤</t>
   </si>
   <si>
     <t>김태훈, 이효제, 김현정, 김종구, 박채은</t>
   </si>
   <si>
+    <t>김윤석, 조인성, 허준호, 구교환, 김소진, 정만식</t>
+  </si>
+  <si>
     <t>송유미, 김정훈, 이승준, 정영수</t>
   </si>
   <si>
-    <t>김윤석, 조인성, 허준호, 구교환, 김소진, 정만식</t>
-  </si>
-  <si>
     <t>백승환, 이희준, 고주환, 차유미, 김충길</t>
   </si>
   <si>
@@ -1600,12 +1603,12 @@
     <t>차승원, 김성균, 이광수, 김혜준</t>
   </si>
   <si>
+    <t>김예은, 곽민규, 오규철, 한해인, 신기환</t>
+  </si>
+  <si>
     <t>그라지나 자폴로스카, 올라프 루바젠코</t>
   </si>
   <si>
-    <t>김예은, 곽민규, 오규철, 한해인, 신기환</t>
-  </si>
-  <si>
     <t>카미키 류노스케, 카미시라이시 모네</t>
   </si>
   <si>
@@ -1618,24 +1621,30 @@
     <t>심규혁, 김유림, 최한, 강은애, 이장원, 손정아, 다이고 코타로, 모리 나나, 오구리 슌, 혼다 츠바사, 히라이즈미 세이</t>
   </si>
   <si>
+    <t>프란시스 맥도맨드</t>
+  </si>
+  <si>
+    <t>허광한, 장약남</t>
+  </si>
+  <si>
     <t>아리무라 카스미, 스다 마사키, 키요하라 카야, 호소다 카나타</t>
   </si>
   <si>
-    <t>허광한, 장약남</t>
-  </si>
-  <si>
-    <t>프란시스 맥도맨드</t>
+    <t>남기형</t>
   </si>
   <si>
     <t>휴 잭맨, 레베카 퍼거슨, 탠디 뉴튼</t>
   </si>
   <si>
-    <t>남기형</t>
+    <t>정선혜, 신용우, 김새해, 엄상현, 박지윤, 문남숙, 전숙경, 은영선, 사성웅</t>
   </si>
   <si>
     <t>라이언 레이놀즈</t>
   </si>
   <si>
+    <t>미야노 마모루, 시마자키 노부나가, 타카하시 리에, 사카모토 마아야, 카와스미 아야코, 미즈시마 타카히로</t>
+  </si>
+  <si>
     <t>다니엘 기메네즈 카쵸</t>
   </si>
   <si>
@@ -1645,235 +1654,229 @@
     <t>비고 모텐슨, 조지 맥케이, 사만다 이슬러, 애너리즈 바쏘, 니콜라스 해밀턴, 슈리 크룩스, 찰리 쇼트웰</t>
   </si>
   <si>
+    <t>가엘 가르시아 베르날, 빅키 크리엡스, 토마신 맥켄지, 알렉스 울프</t>
+  </si>
+  <si>
+    <t>심규혁, 이경태, 무라타 타이시, 마츠오카 요시츠구, 시마무라 유우, 이토 카나에</t>
+  </si>
+  <si>
     <t>헨리 골딩, 우슬라 코르베로, 앤드류 코지</t>
   </si>
   <si>
-    <t>심규혁, 이경태, 무라타 타이시, 마츠오카 요시츠구, 시마무라 유우, 이토 카나에</t>
-  </si>
-  <si>
-    <t>정선혜, 신용우, 김새해, 엄상현, 박지윤, 문남숙, 전숙경, 은영선, 사성웅</t>
-  </si>
-  <si>
-    <t>미야노 마모루, 시마자키 노부나가, 타카하시 리에, 사카모토 마아야, 카와스미 아야코, 미즈시마 타카히로</t>
+    <t>계륜미, 진백림, 양우림</t>
   </si>
   <si>
     <t>박강아름, 정성만</t>
   </si>
   <si>
-    <t>계륜미, 진백림, 양우림</t>
+    <t>김권후, 윤혜리, 오민애</t>
   </si>
   <si>
     <t>김강우, 김소혜, 이정형, 홍진기, 엄채영</t>
   </si>
   <si>
+    <t>다나카 유코, 아오이 유우, 히가시데 마사히로</t>
+  </si>
+  <si>
+    <t>데브 파텔, 알리시아 비칸데르, 조엘 에저튼, 사리타 초우드리, 랄프 이네슨, 케이트 딕키, 배리 케오간, 숀 해리스</t>
+  </si>
+  <si>
+    <t>자스민 사보이 브라운, 릴리 시몬스, 제임스 재거, 테사 먼로</t>
+  </si>
+  <si>
+    <t>장국영, 임가흔</t>
+  </si>
+  <si>
+    <t>김학렬, 김용태, 김옥희, 변기영, 서종태, 원재연, 이용호, 지철현, 김수형, 김남혁, 김윤찬, 윤지수, 박용준, 김일현, 최지영, 김주헌, 박요한, 하태성, 안동현, 이선행, 장만수, 정화자, 강병걸, 최재원, 송예은, 이혜원</t>
+  </si>
+  <si>
+    <t>이제훈, 안재홍, 최우식, 박정민, 박해수</t>
+  </si>
+  <si>
+    <t>안토니 바기스</t>
+  </si>
+  <si>
+    <t>제시 아이젠버그, 앤드류 가필드, 저스틴 팀버레이크, 아미 해머</t>
+  </si>
+  <si>
     <t>정애화</t>
   </si>
   <si>
+    <t>윌리엄 홀든, 잭 호킨스, 알렉 기네스, 하야카와 세슈, 제임스 도널드, 제프리 호른</t>
+  </si>
+  <si>
+    <t>김현목, 김해나</t>
+  </si>
+  <si>
+    <t>앤디 샘버그, 크리스틴 밀리오티, J.K. 시몬스</t>
+  </si>
+  <si>
     <t>신석호, 박미소, 예지원, 기주봉, 서영화, 김민희, 조윤희, 하성국, 조소연</t>
   </si>
   <si>
-    <t>다나카 유코, 아오이 유우, 히가시데 마사히로</t>
-  </si>
-  <si>
-    <t>가엘 가르시아 베르날, 빅키 크리엡스, 토마신 맥켄지, 알렉스 울프</t>
-  </si>
-  <si>
-    <t>자스민 사보이 브라운, 릴리 시몬스, 제임스 재거, 테사 먼로</t>
-  </si>
-  <si>
-    <t>장국영, 임가흔</t>
-  </si>
-  <si>
-    <t>김학렬, 김용태, 김옥희, 변기영, 서종태, 원재연, 이용호, 지철현, 김수형, 김남혁, 김윤찬, 윤지수, 박용준, 김일현, 최지영, 김주헌, 박요한, 하태성, 안동현, 이선행, 장만수, 정화자, 강병걸, 최재원, 송예은, 이혜원</t>
+    <t>조지 맥케이, 러셀 크로우, 니콜라스 홀트, 에시 데이비스, 토마신 맥켄지, 찰리 허냄</t>
+  </si>
+  <si>
+    <t>나카가와 타이시, 키요하라 카야</t>
+  </si>
+  <si>
+    <t>김원경, 박재순, 김은영, 문지애, 정관영, 조수정, 최원자, 정소연, 정현숙, 김회정, 장윤나, 전정아, 조현주, 이의영, 송설, 조용진, 이석준, 박준명, 조승열, 박소영, 박수윤, 김시원, 박철순, 안영환</t>
+  </si>
+  <si>
+    <t>루브나 아자발, 니스린 에라디, 두아이 벨카우다, 아지즈 하타브</t>
+  </si>
+  <si>
+    <t>스칼릿 조핸슨, 플로렌스 퓨, 레이첼 와이즈, 데이빗 하버</t>
+  </si>
+  <si>
+    <t>구자형, 김영선, 양정화, 최승훈, 남도형, 나카무라 유이치, 카지 유우키</t>
+  </si>
+  <si>
+    <t>셰랍 도르지, 펨 잠, 켈든 라모 구룽, 유겐 노르부 렌덥, 체링 도르지</t>
+  </si>
+  <si>
+    <t>마고 로비, 이드리스 엘바, 존 시나, 조엘 킨나만, 실베스터 스탤론, 비올라 데이비스</t>
+  </si>
+  <si>
+    <t>이문규, 정유민, 박영빈, 한서연, 김진태</t>
+  </si>
+  <si>
+    <t>데이지 리들리, 조지 맥케이, 나오미 왓츠, 클라이브 오웬</t>
+  </si>
+  <si>
+    <t>바바라 수코바, 마틴 슈발리에</t>
+  </si>
+  <si>
+    <t>스기타 토모카즈, 사카구치 다이스케, 쿠기미야 리에, 이시다 아키라, 코야스 타케히토</t>
   </si>
   <si>
     <t>임청하, 양조위, 왕페이, 금성무</t>
   </si>
   <si>
-    <t>앤디 샘버그, 크리스틴 밀리오티, J.K. 시몬스</t>
-  </si>
-  <si>
-    <t>나카가와 타이시, 키요하라 카야</t>
-  </si>
-  <si>
-    <t>김현목, 김해나</t>
-  </si>
-  <si>
-    <t>윌리엄 홀든, 잭 호킨스, 알렉 기네스, 하야카와 세슈, 제임스 도널드, 제프리 호른</t>
-  </si>
-  <si>
-    <t>데브 파텔, 알리시아 비칸데르, 조엘 에저튼, 사리타 초우드리, 랄프 이네슨, 케이트 딕키, 배리 케오간, 숀 해리스</t>
-  </si>
-  <si>
-    <t>제시 아이젠버그, 앤드류 가필드, 저스틴 팀버레이크, 아미 해머</t>
+    <t>니나 호스, 로날드 제르필드, 니나 쿤젠도르프</t>
+  </si>
+  <si>
+    <t>예수정, 기주봉, 김준경</t>
+  </si>
+  <si>
+    <t>타카스기 마히로, 린</t>
+  </si>
+  <si>
+    <t>올리버 색스, 빌 헤이스, 케이트 에드거, 로렌스 웨슐러</t>
+  </si>
+  <si>
+    <t>김희애, 김소혜, 성유빈, 나카무라 유코, 키노 하나</t>
+  </si>
+  <si>
+    <t>장만옥, 양조위</t>
+  </si>
+  <si>
+    <t>시얼샤 로넌, 아네트 베닝, 빌리 하울, 코리 스톨</t>
+  </si>
+  <si>
+    <t>기주봉</t>
+  </si>
+  <si>
+    <t>진구, 이동규, 김태우, 김보경</t>
+  </si>
+  <si>
+    <t>카타요세 료타, 카와에이 리나</t>
+  </si>
+  <si>
+    <t>하마베 미나미, 키타무라 타쿠미</t>
+  </si>
+  <si>
+    <t>샤하브 호세이니</t>
+  </si>
+  <si>
+    <t>우지현, 심달기, 강길우, 민경진</t>
+  </si>
+  <si>
+    <t>줄리엣 비노쉬, 제레미 아이언스</t>
+  </si>
+  <si>
+    <t>조진웅, 류준열, 김주혁, 김성령, 박해준</t>
+  </si>
+  <si>
+    <t>이치하라 하야토, 오시나리 슈고</t>
+  </si>
+  <si>
+    <t>민형식, 이운숙, 민병우</t>
+  </si>
+  <si>
+    <t>제임스 폴크너, 제임스 카비젤</t>
+  </si>
+  <si>
+    <t>이병헌, 이은주</t>
+  </si>
+  <si>
+    <t>이렌느 야곱, 필립 볼터, 샌드린 듀마스</t>
+  </si>
+  <si>
+    <t>에밀리 모티머, 빌 나이, 패트리시아 클락슨</t>
+  </si>
+  <si>
+    <t>고두심, 지현우</t>
+  </si>
+  <si>
+    <t>이렌느 야곱, 장-루이 트린티냥</t>
+  </si>
+  <si>
+    <t>줄리엣 비노쉬, 베누아 레전트, 플로렌스 퍼넬, 샤롯 베리, 헬렌 벤상, 필립 볼터, 클로드 뒤네톤, 위그 케스테</t>
+  </si>
+  <si>
+    <t>김희철, 이봄</t>
+  </si>
+  <si>
+    <t>이정재, 최민식, 황정민</t>
+  </si>
+  <si>
+    <t>데이빗 A.R. 화이트, 존 코베트, 쉐인 하퍼, 테드 맥긴리, 테이텀 오닐</t>
+  </si>
+  <si>
+    <t>김옥빈, 신하균, 성준, 김서형, 조은지</t>
+  </si>
+  <si>
+    <t>공리, 장첸</t>
+  </si>
+  <si>
+    <t>아네트 베닝, 엘르 패닝, 그레타 거윅, 루카스 제이드 주만, 빌리 크루덥</t>
+  </si>
+  <si>
+    <t>이와미 마나카, 이리노 미유, 카야노 아이</t>
+  </si>
+  <si>
+    <t>테일러 러셀, 로건 밀러</t>
+  </si>
+  <si>
+    <t>야마모토 마사코, 야마모토 야스나리</t>
+  </si>
+  <si>
+    <t>강길우, 홍경, 이상희, 기주봉, 기도영, 최금순, 김시하</t>
+  </si>
+  <si>
+    <t>페테르 시모니슈에크, 다니엘 돈스코이, 사브리나 아마리, 메흐디 메스카르, 비비아나 베글라우, 괴츠 오토</t>
+  </si>
+  <si>
+    <t>스티브 쿠건, 롭 브라이든</t>
+  </si>
+  <si>
+    <t>아오이 유우, 스즈키 안, 카쿠 토모히로</t>
+  </si>
+  <si>
+    <t>이은자, 정난모, 조부용, 장민희, 김남연</t>
+  </si>
+  <si>
+    <t>장국영, 양조위, 장첸</t>
+  </si>
+  <si>
+    <t>정우성, 고원원</t>
   </si>
   <si>
     <t>문승아, 최준우, 김채원, 임호준</t>
   </si>
   <si>
-    <t>안토니 바기스</t>
-  </si>
-  <si>
-    <t>이제훈, 안재홍, 최우식, 박정민, 박해수</t>
-  </si>
-  <si>
-    <t>조지 맥케이, 러셀 크로우, 니콜라스 홀트, 에시 데이비스, 토마신 맥켄지, 찰리 허냄</t>
-  </si>
-  <si>
-    <t>루브나 아자발, 니스린 에라디, 두아이 벨카우다, 아지즈 하타브</t>
-  </si>
-  <si>
-    <t>김권후, 윤혜리, 오민애</t>
-  </si>
-  <si>
-    <t>스칼릿 조핸슨, 플로렌스 퓨, 레이첼 와이즈, 데이빗 하버</t>
-  </si>
-  <si>
-    <t>니나 호스, 로날드 제르필드, 니나 쿤젠도르프</t>
-  </si>
-  <si>
-    <t>셰랍 도르지, 펨 잠, 켈든 라모 구룽, 유겐 노르부 렌덥, 체링 도르지</t>
-  </si>
-  <si>
-    <t>마고 로비, 이드리스 엘바, 존 시나, 조엘 킨나만, 실베스터 스탤론, 비올라 데이비스</t>
-  </si>
-  <si>
-    <t>이문규, 정유민, 박영빈, 한서연, 김진태</t>
-  </si>
-  <si>
-    <t>구자형, 김영선, 양정화, 최승훈, 남도형, 나카무라 유이치, 카지 유우키</t>
-  </si>
-  <si>
-    <t>데이지 리들리, 조지 맥케이, 나오미 왓츠, 클라이브 오웬</t>
-  </si>
-  <si>
-    <t>바바라 수코바, 마틴 슈발리에</t>
-  </si>
-  <si>
-    <t>스기타 토모카즈, 사카구치 다이스케, 쿠기미야 리에, 이시다 아키라, 코야스 타케히토</t>
-  </si>
-  <si>
-    <t>예수정, 기주봉, 김준경</t>
-  </si>
-  <si>
-    <t>타카스기 마히로, 린</t>
-  </si>
-  <si>
-    <t>올리버 색스, 빌 헤이스, 케이트 에드거, 로렌스 웨슐러</t>
-  </si>
-  <si>
-    <t>김희애, 김소혜, 성유빈, 나카무라 유코, 키노 하나</t>
-  </si>
-  <si>
-    <t>장만옥, 양조위</t>
-  </si>
-  <si>
-    <t>시얼샤 로넌, 아네트 베닝, 빌리 하울, 코리 스톨</t>
-  </si>
-  <si>
-    <t>기주봉</t>
-  </si>
-  <si>
-    <t>진구, 이동규, 김태우, 김보경</t>
-  </si>
-  <si>
-    <t>카타요세 료타, 카와에이 리나</t>
-  </si>
-  <si>
-    <t>하마베 미나미, 키타무라 타쿠미</t>
-  </si>
-  <si>
-    <t>샤하브 호세이니</t>
-  </si>
-  <si>
-    <t>우지현, 심달기, 강길우, 민경진</t>
-  </si>
-  <si>
-    <t>줄리엣 비노쉬, 제레미 아이언스</t>
-  </si>
-  <si>
-    <t>조진웅, 류준열, 김주혁, 김성령, 박해준</t>
-  </si>
-  <si>
-    <t>이치하라 하야토, 오시나리 슈고</t>
-  </si>
-  <si>
-    <t>기주봉, 오정환, 고원희</t>
-  </si>
-  <si>
-    <t>민형식, 이운숙, 민병우</t>
-  </si>
-  <si>
-    <t>제임스 폴크너, 제임스 카비젤</t>
-  </si>
-  <si>
-    <t>이병헌, 이은주</t>
-  </si>
-  <si>
-    <t>이렌느 야곱, 필립 볼터, 샌드린 듀마스</t>
-  </si>
-  <si>
-    <t>에밀리 모티머, 빌 나이, 패트리시아 클락슨</t>
-  </si>
-  <si>
-    <t>고두심, 지현우</t>
-  </si>
-  <si>
-    <t>이렌느 야곱, 장-루이 트린티냥</t>
-  </si>
-  <si>
-    <t>줄리엣 비노쉬, 베누아 레전트, 플로렌스 퍼넬, 샤롯 베리, 헬렌 벤상, 필립 볼터, 클로드 뒤네톤, 위그 케스테</t>
-  </si>
-  <si>
-    <t>김희철, 이봄</t>
-  </si>
-  <si>
-    <t>이정재, 최민식, 황정민</t>
-  </si>
-  <si>
-    <t>데이빗 A.R. 화이트, 존 코베트, 쉐인 하퍼, 테드 맥긴리, 테이텀 오닐</t>
-  </si>
-  <si>
-    <t>김옥빈, 신하균, 성준, 김서형, 조은지</t>
-  </si>
-  <si>
-    <t>공리, 장첸</t>
-  </si>
-  <si>
-    <t>아네트 베닝, 엘르 패닝, 그레타 거윅, 루카스 제이드 주만, 빌리 크루덥</t>
-  </si>
-  <si>
-    <t>이와미 마나카, 이리노 미유, 카야노 아이</t>
-  </si>
-  <si>
-    <t>테일러 러셀, 로건 밀러</t>
-  </si>
-  <si>
-    <t>야마모토 마사코, 야마모토 야스나리</t>
-  </si>
-  <si>
-    <t>강길우, 홍경, 이상희, 기주봉, 기도영, 최금순, 김시하</t>
-  </si>
-  <si>
-    <t>존 라이스 데이비스, 벤 프라이스</t>
-  </si>
-  <si>
-    <t>페테르 시모니슈에크, 다니엘 돈스코이, 사브리나 아마리, 메흐디 메스카르, 비비아나 베글라우, 괴츠 오토</t>
-  </si>
-  <si>
-    <t>스티브 쿠건, 롭 브라이든</t>
-  </si>
-  <si>
-    <t>아오이 유우, 스즈키 안, 카쿠 토모히로</t>
-  </si>
-  <si>
-    <t>이은자, 정난모, 조부용, 장민희, 김남연</t>
-  </si>
-  <si>
-    <t>장국영, 양조위, 장첸</t>
-  </si>
-  <si>
-    <t>정우성, 고원원</t>
+    <t>윤아영, 김정아, 최낙윤, 이현주, 조현정, 미즈타 와사비, 오오하라 메구미, 키무라 스바루, 세키 토모카즈, 카카즈 유미</t>
   </si>
   <si>
     <t>찰리 채플린, 클레어 브룸</t>
@@ -1885,6 +1888,9 @@
     <t>알리스태어 브래머, 에바 노블자다, 홍광호, 존 존 브라이언스</t>
   </si>
   <si>
+    <t>알렉 볼드윈, 제임스 마스던, 에이미 세다리스</t>
+  </si>
+  <si>
     <t>찰리 채플린, 버지니아 쉐릴, 플로렌스 리, 해리 마이어스, 알랜 가르시아, 행크 만</t>
   </si>
   <si>
@@ -1894,10 +1900,187 @@
     <t>찰리 채플린, 에드나 펄비안스, 잭키 쿠건</t>
   </si>
   <si>
-    <t>에드나 펄비안스</t>
-  </si>
-  <si>
     <t>찰리 채플린, 맥 스웨인, 톰 머레이, 헨리 버그맨</t>
+  </si>
+  <si>
+    <t>132분</t>
+  </si>
+  <si>
+    <t>131분</t>
+  </si>
+  <si>
+    <t>115분</t>
+  </si>
+  <si>
+    <t>94분</t>
+  </si>
+  <si>
+    <t>109분</t>
+  </si>
+  <si>
+    <t>111분</t>
+  </si>
+  <si>
+    <t>83분</t>
+  </si>
+  <si>
+    <t>98분</t>
+  </si>
+  <si>
+    <t>101분</t>
+  </si>
+  <si>
+    <t>121분</t>
+  </si>
+  <si>
+    <t>74분</t>
+  </si>
+  <si>
+    <t>77분</t>
+  </si>
+  <si>
+    <t>127분</t>
+  </si>
+  <si>
+    <t>90분</t>
+  </si>
+  <si>
+    <t>113분</t>
+  </si>
+  <si>
+    <t>82분</t>
+  </si>
+  <si>
+    <t>87분</t>
+  </si>
+  <si>
+    <t>106분</t>
+  </si>
+  <si>
+    <t>84분</t>
+  </si>
+  <si>
+    <t>145분</t>
+  </si>
+  <si>
+    <t>112분</t>
+  </si>
+  <si>
+    <t>108분</t>
+  </si>
+  <si>
+    <t>123분</t>
+  </si>
+  <si>
+    <t>86분</t>
+  </si>
+  <si>
+    <t>71분</t>
+  </si>
+  <si>
+    <t>96분</t>
+  </si>
+  <si>
+    <t>142분</t>
+  </si>
+  <si>
+    <t>119분</t>
+  </si>
+  <si>
+    <t>59분</t>
+  </si>
+  <si>
+    <t>85분</t>
+  </si>
+  <si>
+    <t>138분</t>
+  </si>
+  <si>
+    <t>130분</t>
+  </si>
+  <si>
+    <t>100분</t>
+  </si>
+  <si>
+    <t>134분</t>
+  </si>
+  <si>
+    <t>93분</t>
+  </si>
+  <si>
+    <t>120분</t>
+  </si>
+  <si>
+    <t>75분</t>
+  </si>
+  <si>
+    <t>155분</t>
+  </si>
+  <si>
+    <t>66분</t>
+  </si>
+  <si>
+    <t>125분</t>
+  </si>
+  <si>
+    <t>97분</t>
+  </si>
+  <si>
+    <t>46분</t>
+  </si>
+  <si>
+    <t>95분</t>
+  </si>
+  <si>
+    <t>104분</t>
+  </si>
+  <si>
+    <t>102분</t>
+  </si>
+  <si>
+    <t>114분</t>
+  </si>
+  <si>
+    <t>105분</t>
+  </si>
+  <si>
+    <t>99분</t>
+  </si>
+  <si>
+    <t>92분</t>
+  </si>
+  <si>
+    <t>107분</t>
+  </si>
+  <si>
+    <t>88분</t>
+  </si>
+  <si>
+    <t>103분</t>
+  </si>
+  <si>
+    <t>135분</t>
+  </si>
+  <si>
+    <t>81분</t>
+  </si>
+  <si>
+    <t>110분</t>
+  </si>
+  <si>
+    <t>175분</t>
+  </si>
+  <si>
+    <t>72분</t>
+  </si>
+  <si>
+    <t>126분</t>
+  </si>
+  <si>
+    <t>53분</t>
+  </si>
+  <si>
+    <t>69분</t>
   </si>
 </sst>
 </file>
@@ -2255,13 +2438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2283,19 +2466,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
         <v>357</v>
@@ -2304,21 +2490,24 @@
         <v>408</v>
       </c>
       <c r="G2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>514</v>
+      </c>
+      <c r="H2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
         <v>358</v>
@@ -2327,21 +2516,24 @@
         <v>409</v>
       </c>
       <c r="G3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>515</v>
+      </c>
+      <c r="H3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
         <v>359</v>
@@ -2350,21 +2542,24 @@
         <v>410</v>
       </c>
       <c r="G4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>516</v>
+      </c>
+      <c r="H4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
         <v>360</v>
@@ -2373,21 +2568,24 @@
         <v>411</v>
       </c>
       <c r="G5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>517</v>
+      </c>
+      <c r="H5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E6" t="s">
         <v>361</v>
@@ -2396,44 +2594,50 @@
         <v>412</v>
       </c>
       <c r="G6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>518</v>
+      </c>
+      <c r="H6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F7" t="s">
         <v>413</v>
       </c>
       <c r="G7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>519</v>
+      </c>
+      <c r="H7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
         <v>362</v>
@@ -2442,21 +2646,24 @@
         <v>414</v>
       </c>
       <c r="G8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>520</v>
+      </c>
+      <c r="H8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E9" t="s">
         <v>363</v>
@@ -2465,21 +2672,24 @@
         <v>415</v>
       </c>
       <c r="G9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>521</v>
+      </c>
+      <c r="H9" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
         <v>364</v>
@@ -2488,21 +2698,24 @@
         <v>416</v>
       </c>
       <c r="G10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>522</v>
+      </c>
+      <c r="H10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E11" t="s">
         <v>365</v>
@@ -2511,12 +2724,15 @@
         <v>417</v>
       </c>
       <c r="G11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>523</v>
+      </c>
+      <c r="H11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>137</v>
@@ -2525,7 +2741,7 @@
         <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E12" t="s">
         <v>366</v>
@@ -2534,12 +2750,15 @@
         <v>418</v>
       </c>
       <c r="G12" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>524</v>
+      </c>
+      <c r="H12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>138</v>
@@ -2548,7 +2767,7 @@
         <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
         <v>367</v>
@@ -2557,44 +2776,50 @@
         <v>419</v>
       </c>
       <c r="G13" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>525</v>
+      </c>
+      <c r="H13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F14" t="s">
         <v>420</v>
       </c>
       <c r="G14" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>526</v>
+      </c>
+      <c r="H14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E15" t="s">
         <v>368</v>
@@ -2603,90 +2828,102 @@
         <v>421</v>
       </c>
       <c r="G15" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>527</v>
+      </c>
+      <c r="H15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F16" t="s">
         <v>422</v>
       </c>
       <c r="G16" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>528</v>
+      </c>
+      <c r="H16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E17" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F17" t="s">
         <v>423</v>
       </c>
       <c r="G17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>529</v>
+      </c>
+      <c r="H17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E18" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F18" t="s">
         <v>424</v>
       </c>
       <c r="G18" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>530</v>
+      </c>
+      <c r="H18" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E19" t="s">
         <v>370</v>
@@ -2695,58 +2932,67 @@
         <v>425</v>
       </c>
       <c r="G19" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>531</v>
+      </c>
+      <c r="H19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E20" t="s">
         <v>371</v>
       </c>
       <c r="F20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G20" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>532</v>
+      </c>
+      <c r="H20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E21" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F21" t="s">
         <v>426</v>
       </c>
       <c r="G21" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>533</v>
+      </c>
+      <c r="H21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>146</v>
@@ -2755,7 +3001,7 @@
         <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E22" t="s">
         <v>372</v>
@@ -2764,90 +3010,102 @@
         <v>425</v>
       </c>
       <c r="G22" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>534</v>
+      </c>
+      <c r="H22" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
         <v>242</v>
       </c>
       <c r="D23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E23" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F23" t="s">
         <v>427</v>
       </c>
       <c r="G23" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>535</v>
+      </c>
+      <c r="H23" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
         <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F24" t="s">
         <v>428</v>
       </c>
       <c r="G24" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>536</v>
+      </c>
+      <c r="H24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
         <v>244</v>
       </c>
       <c r="D25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E25" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="F25" t="s">
         <v>429</v>
       </c>
       <c r="G25" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>537</v>
+      </c>
+      <c r="H25" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E26" t="s">
         <v>375</v>
@@ -2856,18 +3114,21 @@
         <v>430</v>
       </c>
       <c r="G26" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>538</v>
+      </c>
+      <c r="H26" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
         <v>348</v>
@@ -2879,21 +3140,24 @@
         <v>431</v>
       </c>
       <c r="G27" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>539</v>
+      </c>
+      <c r="H27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E28" t="s">
         <v>372</v>
@@ -2902,21 +3166,24 @@
         <v>432</v>
       </c>
       <c r="G28" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>540</v>
+      </c>
+      <c r="H28" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E29" t="s">
         <v>377</v>
@@ -2925,44 +3192,50 @@
         <v>433</v>
       </c>
       <c r="G29" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>541</v>
+      </c>
+      <c r="H29" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E30" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="F30" t="s">
         <v>434</v>
       </c>
       <c r="G30" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>434</v>
+      </c>
+      <c r="H30" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E31" t="s">
         <v>378</v>
@@ -2971,159 +3244,180 @@
         <v>435</v>
       </c>
       <c r="G31" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>542</v>
+      </c>
+      <c r="H31" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F32" t="s">
         <v>436</v>
       </c>
       <c r="G32" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>543</v>
+      </c>
+      <c r="H32" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F33" t="s">
         <v>437</v>
       </c>
       <c r="G33" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>544</v>
+      </c>
+      <c r="H33" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D34" t="s">
         <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="F34" t="s">
         <v>438</v>
       </c>
       <c r="G34" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>545</v>
+      </c>
+      <c r="H34" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D35" t="s">
         <v>352</v>
       </c>
       <c r="E35" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F35" t="s">
         <v>439</v>
       </c>
       <c r="G35" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>546</v>
+      </c>
+      <c r="H35" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
         <v>352</v>
       </c>
       <c r="E36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F36" t="s">
         <v>440</v>
       </c>
       <c r="G36" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>547</v>
+      </c>
+      <c r="H36" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E37" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="F37" t="s">
         <v>441</v>
       </c>
       <c r="G37" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>548</v>
+      </c>
+      <c r="H37" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E38" t="s">
         <v>369</v>
@@ -3132,153 +3426,177 @@
         <v>442</v>
       </c>
       <c r="G38" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>549</v>
+      </c>
+      <c r="H38" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E39" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F39" t="s">
         <v>443</v>
       </c>
       <c r="G39" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>550</v>
+      </c>
+      <c r="H39" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E40" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="F40" t="s">
         <v>444</v>
       </c>
       <c r="G40" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>551</v>
+      </c>
+      <c r="H40" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D41" t="s">
         <v>354</v>
       </c>
+      <c r="E41" t="s">
+        <v>382</v>
+      </c>
       <c r="F41" t="s">
         <v>445</v>
       </c>
       <c r="G41" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>552</v>
+      </c>
+      <c r="H41" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
         <v>354</v>
       </c>
       <c r="E42" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F42" t="s">
         <v>446</v>
       </c>
       <c r="G42" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>553</v>
+      </c>
+      <c r="H42" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D43" t="s">
         <v>354</v>
       </c>
       <c r="E43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F43" t="s">
         <v>447</v>
       </c>
       <c r="G43" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>554</v>
+      </c>
+      <c r="H43" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D44" t="s">
         <v>354</v>
       </c>
       <c r="E44" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F44" t="s">
         <v>448</v>
       </c>
       <c r="G44" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>555</v>
+      </c>
+      <c r="H44" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3290,130 +3608,148 @@
         <v>449</v>
       </c>
       <c r="G45" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>556</v>
+      </c>
+      <c r="H45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D46" t="s">
         <v>354</v>
       </c>
       <c r="E46" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F46" t="s">
         <v>450</v>
       </c>
       <c r="G46" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>557</v>
+      </c>
+      <c r="H46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>261</v>
-      </c>
-      <c r="D47" t="s">
-        <v>355</v>
+        <v>262</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F47" t="s">
         <v>451</v>
       </c>
       <c r="G47" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>558</v>
+      </c>
+      <c r="H47" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
         <v>355</v>
       </c>
       <c r="E48" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="F48" t="s">
         <v>452</v>
       </c>
       <c r="G48" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>559</v>
+      </c>
+      <c r="H48" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D49" t="s">
         <v>355</v>
       </c>
       <c r="E49" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="F49" t="s">
         <v>453</v>
       </c>
       <c r="G49" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>560</v>
+      </c>
+      <c r="H49" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
         <v>355</v>
       </c>
       <c r="E50" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="F50" t="s">
         <v>454</v>
       </c>
       <c r="G50" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>561</v>
+      </c>
+      <c r="H50" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
         <v>265</v>
@@ -3422,21 +3758,24 @@
         <v>355</v>
       </c>
       <c r="E51" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F51" t="s">
         <v>455</v>
       </c>
       <c r="G51" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>562</v>
+      </c>
+      <c r="H51" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
         <v>266</v>
@@ -3445,18 +3784,21 @@
         <v>355</v>
       </c>
       <c r="E52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F52" t="s">
         <v>456</v>
       </c>
       <c r="G52" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>563</v>
+      </c>
+      <c r="H52" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>170</v>
@@ -3468,21 +3810,24 @@
         <v>355</v>
       </c>
       <c r="E53" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="F53" t="s">
         <v>457</v>
       </c>
       <c r="G53" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>564</v>
+      </c>
+      <c r="H53" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
         <v>268</v>
@@ -3490,229 +3835,256 @@
       <c r="D54" t="s">
         <v>355</v>
       </c>
-      <c r="E54" t="s">
-        <v>358</v>
-      </c>
       <c r="F54" t="s">
         <v>458</v>
       </c>
       <c r="G54" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>565</v>
+      </c>
+      <c r="H54" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D55" t="s">
         <v>355</v>
       </c>
       <c r="E55" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="F55" t="s">
         <v>459</v>
       </c>
       <c r="G55" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>566</v>
+      </c>
+      <c r="H55" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="D56" t="s">
+        <v>355</v>
       </c>
       <c r="E56" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="F56" t="s">
         <v>460</v>
       </c>
       <c r="G56" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>567</v>
+      </c>
+      <c r="H56" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D57" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F57" t="s">
         <v>461</v>
       </c>
       <c r="G57" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>568</v>
+      </c>
+      <c r="H57" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
       </c>
       <c r="E58" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="F58" t="s">
         <v>462</v>
       </c>
       <c r="G58" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>569</v>
+      </c>
+      <c r="H58" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
       </c>
       <c r="E59" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="F59" t="s">
         <v>463</v>
       </c>
       <c r="G59" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>570</v>
+      </c>
+      <c r="H59" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D60" t="s">
         <v>356</v>
       </c>
       <c r="E60" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F60" t="s">
         <v>464</v>
       </c>
       <c r="G60" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>464</v>
+      </c>
+      <c r="H60" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D61" t="s">
         <v>356</v>
       </c>
       <c r="E61" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="F61" t="s">
         <v>465</v>
       </c>
       <c r="G61" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>571</v>
+      </c>
+      <c r="H61" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D62" t="s">
         <v>356</v>
       </c>
       <c r="E62" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="F62" t="s">
         <v>466</v>
       </c>
       <c r="G62" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>572</v>
+      </c>
+      <c r="H62" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s">
         <v>356</v>
       </c>
       <c r="E63" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="F63" t="s">
         <v>467</v>
       </c>
       <c r="G63" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>467</v>
+      </c>
+      <c r="H63" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
         <v>275</v>
@@ -3721,93 +4093,105 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="F64" t="s">
         <v>468</v>
       </c>
       <c r="G64" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>573</v>
+      </c>
+      <c r="H64" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="D65" t="s">
         <v>356</v>
       </c>
       <c r="E65" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="F65" t="s">
         <v>469</v>
       </c>
       <c r="G65" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>574</v>
+      </c>
+      <c r="H65" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D66" t="s">
         <v>356</v>
       </c>
       <c r="E66" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="F66" t="s">
         <v>470</v>
       </c>
       <c r="G66" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>575</v>
+      </c>
+      <c r="H66" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D67" t="s">
         <v>356</v>
       </c>
       <c r="E67" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F67" t="s">
         <v>471</v>
       </c>
       <c r="G67" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>576</v>
+      </c>
+      <c r="H67" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D68" t="s">
         <v>356</v>
@@ -3819,725 +4203,821 @@
         <v>472</v>
       </c>
       <c r="G68" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>577</v>
+      </c>
+      <c r="H68" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
         <v>356</v>
       </c>
       <c r="E69" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F69" t="s">
         <v>473</v>
       </c>
       <c r="G69" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>578</v>
+      </c>
+      <c r="H69" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D70" t="s">
         <v>356</v>
       </c>
       <c r="E70" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F70" t="s">
         <v>474</v>
       </c>
       <c r="G70" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>579</v>
+      </c>
+      <c r="H70" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D71" t="s">
         <v>356</v>
       </c>
       <c r="E71" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F71" t="s">
         <v>475</v>
       </c>
       <c r="G71" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>580</v>
+      </c>
+      <c r="H71" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D72" t="s">
         <v>356</v>
       </c>
       <c r="E72" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="F72" t="s">
         <v>476</v>
       </c>
       <c r="G72" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>581</v>
+      </c>
+      <c r="H72" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
         <v>356</v>
       </c>
       <c r="E73" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F73" t="s">
         <v>477</v>
       </c>
       <c r="G73" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>477</v>
+      </c>
+      <c r="H73" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D74" t="s">
         <v>356</v>
       </c>
       <c r="E74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F74" t="s">
         <v>478</v>
       </c>
       <c r="G74" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>582</v>
+      </c>
+      <c r="H74" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D75" t="s">
         <v>356</v>
       </c>
       <c r="E75" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F75" t="s">
         <v>479</v>
       </c>
       <c r="G75" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>583</v>
+      </c>
+      <c r="H75" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D76" t="s">
         <v>356</v>
       </c>
       <c r="E76" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F76" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G76" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>584</v>
+      </c>
+      <c r="H76" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D77" t="s">
         <v>356</v>
       </c>
       <c r="E77" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F77" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="G77" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>585</v>
+      </c>
+      <c r="H77" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D78" t="s">
         <v>356</v>
       </c>
       <c r="E78" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F78" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="G78" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>586</v>
+      </c>
+      <c r="H78" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D79" t="s">
         <v>356</v>
       </c>
       <c r="E79" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="F79" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="G79" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>587</v>
+      </c>
+      <c r="H79" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D80" t="s">
         <v>356</v>
       </c>
       <c r="E80" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F80" t="s">
         <v>482</v>
       </c>
       <c r="G80" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>588</v>
+      </c>
+      <c r="H80" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C81" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D81" t="s">
         <v>356</v>
       </c>
       <c r="E81" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="F81" t="s">
         <v>483</v>
       </c>
       <c r="G81" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>589</v>
+      </c>
+      <c r="H81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D82" t="s">
         <v>356</v>
       </c>
       <c r="E82" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="F82" t="s">
         <v>484</v>
       </c>
       <c r="G82" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>590</v>
+      </c>
+      <c r="H82" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D83" t="s">
         <v>356</v>
       </c>
       <c r="E83" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="F83" t="s">
         <v>485</v>
       </c>
       <c r="G83" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>591</v>
+      </c>
+      <c r="H83" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D84" t="s">
         <v>356</v>
       </c>
       <c r="E84" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F84" t="s">
         <v>486</v>
       </c>
       <c r="G84" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>592</v>
+      </c>
+      <c r="H84" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D85" t="s">
         <v>356</v>
       </c>
       <c r="E85" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="F85" t="s">
         <v>487</v>
       </c>
       <c r="G85" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>593</v>
+      </c>
+      <c r="H85" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D86" t="s">
         <v>356</v>
       </c>
       <c r="E86" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="F86" t="s">
         <v>488</v>
       </c>
       <c r="G86" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>594</v>
+      </c>
+      <c r="H86" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D87" t="s">
         <v>356</v>
       </c>
       <c r="E87" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F87" t="s">
         <v>489</v>
       </c>
       <c r="G87" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>595</v>
+      </c>
+      <c r="H87" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D88" t="s">
         <v>356</v>
       </c>
       <c r="E88" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="F88" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="G88" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>596</v>
+      </c>
+      <c r="H88" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D89" t="s">
         <v>356</v>
       </c>
       <c r="E89" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F89" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G89" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>597</v>
+      </c>
+      <c r="H89" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
       </c>
       <c r="E90" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="F90" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="G90" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>598</v>
+      </c>
+      <c r="H90" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="D91" t="s">
         <v>356</v>
       </c>
       <c r="E91" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F91" t="s">
         <v>492</v>
       </c>
       <c r="G91" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>599</v>
+      </c>
+      <c r="H91" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="D92" t="s">
         <v>356</v>
       </c>
       <c r="E92" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="F92" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="G92" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>600</v>
+      </c>
+      <c r="H92" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="D93" t="s">
         <v>356</v>
       </c>
       <c r="E93" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F93" t="s">
-        <v>493</v>
+        <v>424</v>
       </c>
       <c r="G93" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>601</v>
+      </c>
+      <c r="H93" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="D94" t="s">
         <v>356</v>
       </c>
       <c r="E94" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F94" t="s">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="G94" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>602</v>
+      </c>
+      <c r="H94" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="D95" t="s">
         <v>356</v>
       </c>
-      <c r="E95" t="s">
-        <v>358</v>
-      </c>
       <c r="F95" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="G95" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>603</v>
+      </c>
+      <c r="H95" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
         <v>356</v>
       </c>
       <c r="E96" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="F96" t="s">
-        <v>423</v>
+        <v>495</v>
       </c>
       <c r="G96" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>604</v>
+      </c>
+      <c r="H96" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
         <v>356</v>
       </c>
+      <c r="E97" t="s">
+        <v>361</v>
+      </c>
       <c r="F97" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G97" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>605</v>
+      </c>
+      <c r="H97" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
         <v>356</v>
       </c>
       <c r="E98" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="F98" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G98" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>606</v>
+      </c>
+      <c r="H98" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="D99" t="s">
         <v>356</v>
       </c>
       <c r="E99" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F99" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G99" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>607</v>
+      </c>
+      <c r="H99" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C100" t="s">
         <v>305</v>
@@ -4546,159 +5026,180 @@
         <v>356</v>
       </c>
       <c r="E100" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F100" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G100" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>608</v>
+      </c>
+      <c r="H100" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="D101" t="s">
         <v>356</v>
       </c>
       <c r="E101" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="F101" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G101" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>609</v>
+      </c>
+      <c r="H101" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
         <v>356</v>
       </c>
       <c r="E102" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="F102" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G102" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>610</v>
+      </c>
+      <c r="H102" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
         <v>356</v>
       </c>
       <c r="E103" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F103" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G103" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>611</v>
+      </c>
+      <c r="H103" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D104" t="s">
         <v>356</v>
       </c>
       <c r="E104" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="F104" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G104" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>612</v>
+      </c>
+      <c r="H104" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" t="s">
         <v>209</v>
       </c>
       <c r="C105" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D105" t="s">
         <v>356</v>
       </c>
       <c r="E105" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="F105" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G105" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>613</v>
+      </c>
+      <c r="H105" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
         <v>210</v>
       </c>
       <c r="C106" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="D106" t="s">
         <v>356</v>
       </c>
       <c r="E106" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F106" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G106" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>614</v>
+      </c>
+      <c r="H106" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
         <v>311</v>
@@ -4707,21 +5208,24 @@
         <v>356</v>
       </c>
       <c r="E107" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="F107" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="G107" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>615</v>
+      </c>
+      <c r="H107" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C108" t="s">
         <v>312</v>
@@ -4730,136 +5234,154 @@
         <v>356</v>
       </c>
       <c r="E108" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F108" t="s">
         <v>506</v>
       </c>
       <c r="G108" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>616</v>
+      </c>
+      <c r="H108" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="D109" t="s">
         <v>356</v>
       </c>
       <c r="E109" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F109" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="G109" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>617</v>
+      </c>
+      <c r="H109" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D110" t="s">
         <v>356</v>
       </c>
       <c r="E110" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F110" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="G110" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>618</v>
+      </c>
+      <c r="H110" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="D111" t="s">
         <v>356</v>
       </c>
       <c r="E111" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="F111" t="s">
         <v>508</v>
       </c>
       <c r="G111" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>619</v>
+      </c>
+      <c r="H111" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C112" t="s">
         <v>315</v>
       </c>
-      <c r="D112" t="s">
-        <v>356</v>
+      <c r="D112">
+        <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="F112" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="G112" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>620</v>
+      </c>
+      <c r="H112" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
         <v>316</v>
       </c>
-      <c r="D113" t="s">
-        <v>356</v>
+      <c r="D113">
+        <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F113" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G113" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>621</v>
+      </c>
+      <c r="H113" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s">
         <v>317</v>
@@ -4868,21 +5390,24 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F114" t="s">
         <v>510</v>
       </c>
       <c r="G114" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>622</v>
+      </c>
+      <c r="H114" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="C115" t="s">
         <v>318</v>
@@ -4891,21 +5416,24 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="F115" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G115" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>623</v>
+      </c>
+      <c r="H115" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C116" t="s">
         <v>319</v>
@@ -4917,18 +5445,21 @@
         <v>402</v>
       </c>
       <c r="F116" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G116" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>624</v>
+      </c>
+      <c r="H116" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C117" t="s">
         <v>320</v>
@@ -4937,21 +5468,24 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F117" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G117" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>510</v>
+      </c>
+      <c r="H117" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C118" t="s">
         <v>321</v>
@@ -4960,21 +5494,24 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F118" t="s">
         <v>510</v>
       </c>
       <c r="G118" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>625</v>
+      </c>
+      <c r="H118" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C119" t="s">
         <v>322</v>
@@ -4983,21 +5520,24 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F119" t="s">
         <v>510</v>
       </c>
       <c r="G119" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>622</v>
+      </c>
+      <c r="H119" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C120" t="s">
         <v>323</v>
@@ -5006,21 +5546,24 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F120" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G120" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>626</v>
+      </c>
+      <c r="H120" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C121" t="s">
         <v>324</v>
@@ -5029,21 +5572,24 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F121" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G121" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>627</v>
+      </c>
+      <c r="H121" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C122" t="s">
         <v>325</v>
@@ -5052,59 +5598,16 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F122" t="s">
         <v>510</v>
       </c>
       <c r="G122" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" t="s">
-        <v>222</v>
-      </c>
-      <c r="C123" t="s">
-        <v>326</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123" t="s">
-        <v>358</v>
-      </c>
-      <c r="F123" t="s">
-        <v>510</v>
-      </c>
-      <c r="G123" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" t="s">
-        <v>223</v>
-      </c>
-      <c r="C124" t="s">
-        <v>327</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124" t="s">
-        <v>407</v>
-      </c>
-      <c r="F124" t="s">
-        <v>510</v>
-      </c>
-      <c r="G124" t="s">
-        <v>627</v>
+        <v>628</v>
+      </c>
+      <c r="H122" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
